--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Road-to-DS-2024\MSSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Road-to-DS-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E4DF2-9CCF-4902-97C3-E754C0E16DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E8E6B7-0596-4A1A-ADB5-93BF77CD89B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>German A1 video1</t>
+  </si>
+  <si>
+    <t>MongoDb crud operations practice</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -564,8 +567,12 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>

--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Road-to-DS-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004rr9n\Desktop\Road-to-DS-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E8E6B7-0596-4A1A-ADB5-93BF77CD89B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8A5C0-03EE-4EED-B8D3-2DE1A651F3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>MongoDb crud operations practice</t>
+  </si>
+  <si>
+    <t>19/1/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read about aws </t>
   </si>
 </sst>
 </file>
@@ -460,19 +466,19 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" customWidth="1"/>
-    <col min="2" max="2" width="35.73046875" customWidth="1"/>
-    <col min="3" max="3" width="41.796875" customWidth="1"/>
-    <col min="4" max="4" width="39.73046875" customWidth="1"/>
-    <col min="5" max="5" width="55.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45294</v>
       </c>
@@ -506,7 +512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -517,7 +523,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -528,7 +534,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -537,7 +543,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45306</v>
       </c>
@@ -548,7 +554,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -557,7 +563,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -566,7 +572,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45307</v>
       </c>
@@ -577,357 +583,361 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
